--- a/automation-lab.xlsx
+++ b/automation-lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Cisco-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81207AEE-8AA8-475E-9C9C-2EB4E198D0B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C6ED6-4082-4FBE-8E81-7F178D19027F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{126513B7-9BA9-4E22-96BA-260B5B30AB99}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/automation-lab.xlsx
+++ b/automation-lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Cisco-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C6ED6-4082-4FBE-8E81-7F178D19027F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E4563-8D59-4C85-8D5A-125763CB2E05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{126513B7-9BA9-4E22-96BA-260B5B30AB99}"/>
   </bookViews>
@@ -582,11 +582,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -602,11 +602,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -698,10 +698,18 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="B12" sqref="A11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -723,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -743,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -763,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -783,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -843,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -863,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -883,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -903,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -923,7 +931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -943,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -963,7 +971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -983,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
